--- a/src/test/resources/ExcelResources/Data.xlsx
+++ b/src/test/resources/ExcelResources/Data.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arao\eclipse-workspace\ProjectQ12024\src\test\resources\ExcelResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arao\git\repository\ProjectQ12024\src\test\resources\ExcelResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119687A5-1120-4D23-8EA2-3AD9D166EF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460BE171-ACCE-499E-8063-9CA865F17116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,22 +26,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>akaao</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SujeeTKUMaR</t>
   </si>
   <si>
     <t>SujeeaR</t>
+  </si>
+  <si>
+    <t>anokar</t>
+  </si>
+  <si>
+    <t>anokar123</t>
+  </si>
+  <si>
+    <t>venkat</t>
+  </si>
+  <si>
+    <t>venakt123</t>
+  </si>
+  <si>
+    <t>ramu</t>
+  </si>
+  <si>
+    <t>ramu123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,12 +81,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,21 +385,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1630BB-81D5-498A-86A6-E9F58D993B88}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
